--- a/Sales.xlsx
+++ b/Sales.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\00-MLSamples\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousif Ennwa\Documents\GitHub\Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9BC6D-DB83-4E86-84AB-2A2AA79EB0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NewEmployees" sheetId="3" r:id="rId1"/>
-    <sheet name="Employees" sheetId="2" r:id="rId2"/>
-    <sheet name="Sales" sheetId="4" r:id="rId3"/>
+    <sheet name="Sales" sheetId="4" r:id="rId1"/>
+    <sheet name="NewEmployees" sheetId="3" r:id="rId2"/>
+    <sheet name="Employees" sheetId="2" r:id="rId3"/>
     <sheet name="ConcatenatedSheet" sheetId="1" r:id="rId4"/>
     <sheet name="Names" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,6 +267,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -291,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,7 +511,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B2" s="2">
+        <f>A2*0.25</f>
+        <v>499.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B5" si="0">A3*0.25</f>
+        <v>499.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>499.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="2">
+        <f>A6*0.5</f>
+        <v>1000.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B10" si="1">A7*0.5</f>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>1001.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>1002.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="2">
+        <f>A11*0.75</f>
+        <v>1504.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:B15" si="2">A12*0.75</f>
+        <v>1505.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="2"/>
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
+        <v>1506.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>1507.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="2">
+        <f>A16*1.5</f>
+        <v>3016.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ref="B17:B21" si="3">A17*1.5</f>
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="3"/>
+        <v>3019.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="3"/>
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="3"/>
+        <v>3022.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="3"/>
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="2">
+        <f>A22*3</f>
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ref="B23:B25" si="4">A23*3</f>
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="4"/>
+        <v>6057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -792,8 +1071,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1119,219 +1398,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B2" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0"/>
@@ -1890,10 +1958,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Sales.xlsx
+++ b/Sales.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousif Ennwa\Documents\GitHub\Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9BC6D-DB83-4E86-84AB-2A2AA79EB0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B33A7-14BC-4C0A-9544-F6F959CBB1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="4" r:id="rId1"/>
-    <sheet name="NewEmployees" sheetId="3" r:id="rId2"/>
-    <sheet name="Employees" sheetId="2" r:id="rId3"/>
-    <sheet name="ConcatenatedSheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Names" sheetId="5" r:id="rId5"/>
+    <sheet name="BuildingCost" sheetId="6" r:id="rId2"/>
+    <sheet name="NewEmployees" sheetId="3" r:id="rId3"/>
+    <sheet name="Employees" sheetId="2" r:id="rId4"/>
+    <sheet name="ConcatenatedSheet" sheetId="1" r:id="rId5"/>
+    <sheet name="Names" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="21">
   <si>
     <t>Salary</t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>Salah</t>
+  </si>
+  <si>
+    <t>BuildingAge</t>
   </si>
 </sst>
 </file>
@@ -514,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,8 +585,7 @@
         <v>2002</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ref="B7:B10" si="1">A7*0.5</f>
-        <v>1001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B7:B10" si="1">A8*0.5</f>
         <v>1001.5</v>
       </c>
     </row>
@@ -635,8 +638,7 @@
         <v>2008</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="2"/>
-        <v>1506</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,8 +691,7 @@
         <v>2014</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="3"/>
-        <v>3021</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +726,7 @@
         <v>2018</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:B25" si="4">A23*3</f>
+        <f t="shared" ref="B23:B24" si="4">A23*3</f>
         <v>6054</v>
       </c>
     </row>
@@ -745,6 +746,8089 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFFC303-0E63-4655-B680-F759FB6D59B4}">
+  <dimension ref="A1:B1005"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+      <selection activeCell="B1004" sqref="B1004"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1920</v>
+      </c>
+      <c r="B2" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1921</v>
+      </c>
+      <c r="B3" s="2">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1922</v>
+      </c>
+      <c r="B4" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1923</v>
+      </c>
+      <c r="B5" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1924</v>
+      </c>
+      <c r="B6" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1925</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1926</v>
+      </c>
+      <c r="B8" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1927</v>
+      </c>
+      <c r="B9" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1928</v>
+      </c>
+      <c r="B10" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1929</v>
+      </c>
+      <c r="B11" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1930</v>
+      </c>
+      <c r="B12" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1931</v>
+      </c>
+      <c r="B13" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1932</v>
+      </c>
+      <c r="B14" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1933</v>
+      </c>
+      <c r="B15" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1934</v>
+      </c>
+      <c r="B16" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1935</v>
+      </c>
+      <c r="B17" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1936</v>
+      </c>
+      <c r="B18" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1937</v>
+      </c>
+      <c r="B19" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1938</v>
+      </c>
+      <c r="B20" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1939</v>
+      </c>
+      <c r="B21" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1940</v>
+      </c>
+      <c r="B22" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B23" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1942</v>
+      </c>
+      <c r="B24" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1943</v>
+      </c>
+      <c r="B25" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1944</v>
+      </c>
+      <c r="B26" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1945</v>
+      </c>
+      <c r="B27" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1946</v>
+      </c>
+      <c r="B28" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1947</v>
+      </c>
+      <c r="B29" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1948</v>
+      </c>
+      <c r="B30" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1949</v>
+      </c>
+      <c r="B31" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1950</v>
+      </c>
+      <c r="B32" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1951</v>
+      </c>
+      <c r="B33" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1952</v>
+      </c>
+      <c r="B34" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B35" s="2">
+        <f>A35*0.25</f>
+        <v>499.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:B38" si="0">A36*0.25</f>
+        <v>499.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>499.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B39" s="2">
+        <f>A39*0.5</f>
+        <v>1000.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B40" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:B44" si="1">A41*0.5</f>
+        <v>1001.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="1"/>
+        <v>1002.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B44" s="2">
+        <f>A44*0.75</f>
+        <v>1504.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" ref="B45:B48" si="2">A45*0.75</f>
+        <v>1505.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B46" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="2"/>
+        <v>1506.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="2"/>
+        <v>1507.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B49" s="2">
+        <f>A49*1.5</f>
+        <v>3016.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" ref="B50:B54" si="3">A50*1.5</f>
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="3"/>
+        <v>3019.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B52" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="3"/>
+        <v>3022.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="3"/>
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="2">
+        <f>A55*3</f>
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" ref="B56:B57" si="4">A56*3</f>
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="4"/>
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="2">
+        <f>A58*0.75</f>
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" ref="B59:B62" si="5">A59*0.75</f>
+        <v>1515.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" ref="B61:B63" si="6">A61*0.75</f>
+        <v>1517.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="6"/>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="2">
+        <f>A63*1.5</f>
+        <v>3037.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B64">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2027</v>
+      </c>
+      <c r="B65">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2028</v>
+      </c>
+      <c r="B66">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2029</v>
+      </c>
+      <c r="B67">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B68">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2031</v>
+      </c>
+      <c r="B69">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2032</v>
+      </c>
+      <c r="B70">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2033</v>
+      </c>
+      <c r="B71">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2034</v>
+      </c>
+      <c r="B72">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2035</v>
+      </c>
+      <c r="B73">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2036</v>
+      </c>
+      <c r="B74">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2037</v>
+      </c>
+      <c r="B75">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>2038</v>
+      </c>
+      <c r="B76">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2039</v>
+      </c>
+      <c r="B77">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>2040</v>
+      </c>
+      <c r="B78">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>2041</v>
+      </c>
+      <c r="B79">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>2042</v>
+      </c>
+      <c r="B80">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>2043</v>
+      </c>
+      <c r="B81">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>2044</v>
+      </c>
+      <c r="B82">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>2045</v>
+      </c>
+      <c r="B83">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2046</v>
+      </c>
+      <c r="B84">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>2047</v>
+      </c>
+      <c r="B85">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B86">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2049</v>
+      </c>
+      <c r="B87">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>2050</v>
+      </c>
+      <c r="B88">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>2051</v>
+      </c>
+      <c r="B89">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>2052</v>
+      </c>
+      <c r="B90">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>2053</v>
+      </c>
+      <c r="B91">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>2054</v>
+      </c>
+      <c r="B92">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>2055</v>
+      </c>
+      <c r="B93">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>2056</v>
+      </c>
+      <c r="B94">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>2057</v>
+      </c>
+      <c r="B95">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>2058</v>
+      </c>
+      <c r="B96">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>2059</v>
+      </c>
+      <c r="B97">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>2060</v>
+      </c>
+      <c r="B98">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>2061</v>
+      </c>
+      <c r="B99">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>2062</v>
+      </c>
+      <c r="B100">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>2063</v>
+      </c>
+      <c r="B101">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>2064</v>
+      </c>
+      <c r="B102">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>2065</v>
+      </c>
+      <c r="B103">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>2066</v>
+      </c>
+      <c r="B104">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>2067</v>
+      </c>
+      <c r="B105">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>2068</v>
+      </c>
+      <c r="B106">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>2069</v>
+      </c>
+      <c r="B107">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>2070</v>
+      </c>
+      <c r="B108">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>2071</v>
+      </c>
+      <c r="B109">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>2072</v>
+      </c>
+      <c r="B110">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>2073</v>
+      </c>
+      <c r="B111">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>2074</v>
+      </c>
+      <c r="B112">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>2075</v>
+      </c>
+      <c r="B113">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>2076</v>
+      </c>
+      <c r="B114">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>2077</v>
+      </c>
+      <c r="B115">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>2078</v>
+      </c>
+      <c r="B116">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>2079</v>
+      </c>
+      <c r="B117">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>2080</v>
+      </c>
+      <c r="B118">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>2081</v>
+      </c>
+      <c r="B119">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>2082</v>
+      </c>
+      <c r="B120">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>2083</v>
+      </c>
+      <c r="B121">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>2084</v>
+      </c>
+      <c r="B122">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>2085</v>
+      </c>
+      <c r="B123">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>2086</v>
+      </c>
+      <c r="B124">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>2087</v>
+      </c>
+      <c r="B125">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>2088</v>
+      </c>
+      <c r="B126">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>2089</v>
+      </c>
+      <c r="B127">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>2090</v>
+      </c>
+      <c r="B128">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>2091</v>
+      </c>
+      <c r="B129">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>2092</v>
+      </c>
+      <c r="B130">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>2093</v>
+      </c>
+      <c r="B131">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>2094</v>
+      </c>
+      <c r="B132">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>2095</v>
+      </c>
+      <c r="B133">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>2096</v>
+      </c>
+      <c r="B134">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>2097</v>
+      </c>
+      <c r="B135">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>2098</v>
+      </c>
+      <c r="B136">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>2099</v>
+      </c>
+      <c r="B137">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>2100</v>
+      </c>
+      <c r="B138">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>2101</v>
+      </c>
+      <c r="B139">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>2102</v>
+      </c>
+      <c r="B140">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>2103</v>
+      </c>
+      <c r="B141">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>2104</v>
+      </c>
+      <c r="B142">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>2105</v>
+      </c>
+      <c r="B143">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>2106</v>
+      </c>
+      <c r="B144">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>2107</v>
+      </c>
+      <c r="B145">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>2108</v>
+      </c>
+      <c r="B146">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>2109</v>
+      </c>
+      <c r="B147">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>2110</v>
+      </c>
+      <c r="B148">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>2111</v>
+      </c>
+      <c r="B149">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>2112</v>
+      </c>
+      <c r="B150">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>2113</v>
+      </c>
+      <c r="B151">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>2114</v>
+      </c>
+      <c r="B152">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>2115</v>
+      </c>
+      <c r="B153">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>2116</v>
+      </c>
+      <c r="B154">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>2117</v>
+      </c>
+      <c r="B155">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>2118</v>
+      </c>
+      <c r="B156">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>2119</v>
+      </c>
+      <c r="B157">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>2120</v>
+      </c>
+      <c r="B158">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>2121</v>
+      </c>
+      <c r="B159">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>2122</v>
+      </c>
+      <c r="B160">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>2123</v>
+      </c>
+      <c r="B161">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>2124</v>
+      </c>
+      <c r="B162">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>2125</v>
+      </c>
+      <c r="B163">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>2126</v>
+      </c>
+      <c r="B164">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>2127</v>
+      </c>
+      <c r="B165">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>2128</v>
+      </c>
+      <c r="B166">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>2129</v>
+      </c>
+      <c r="B167">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>2130</v>
+      </c>
+      <c r="B168">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>2131</v>
+      </c>
+      <c r="B169">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>2132</v>
+      </c>
+      <c r="B170">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>2133</v>
+      </c>
+      <c r="B171">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>2134</v>
+      </c>
+      <c r="B172">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>2135</v>
+      </c>
+      <c r="B173">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>2136</v>
+      </c>
+      <c r="B174">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>2137</v>
+      </c>
+      <c r="B175">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>2138</v>
+      </c>
+      <c r="B176">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>2139</v>
+      </c>
+      <c r="B177">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>2140</v>
+      </c>
+      <c r="B178">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>2141</v>
+      </c>
+      <c r="B179">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>2142</v>
+      </c>
+      <c r="B180">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>2143</v>
+      </c>
+      <c r="B181">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>2144</v>
+      </c>
+      <c r="B182">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>2145</v>
+      </c>
+      <c r="B183">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>2146</v>
+      </c>
+      <c r="B184">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>2147</v>
+      </c>
+      <c r="B185">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>2148</v>
+      </c>
+      <c r="B186">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>2149</v>
+      </c>
+      <c r="B187">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>2150</v>
+      </c>
+      <c r="B188">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>2151</v>
+      </c>
+      <c r="B189">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>2152</v>
+      </c>
+      <c r="B190">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>2153</v>
+      </c>
+      <c r="B191">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>2154</v>
+      </c>
+      <c r="B192">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>2155</v>
+      </c>
+      <c r="B193">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>2156</v>
+      </c>
+      <c r="B194">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>2157</v>
+      </c>
+      <c r="B195">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>2158</v>
+      </c>
+      <c r="B196">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>2159</v>
+      </c>
+      <c r="B197">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>2160</v>
+      </c>
+      <c r="B198">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>2161</v>
+      </c>
+      <c r="B199">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>2162</v>
+      </c>
+      <c r="B200">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>2163</v>
+      </c>
+      <c r="B201">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>2164</v>
+      </c>
+      <c r="B202">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>2165</v>
+      </c>
+      <c r="B203">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>2166</v>
+      </c>
+      <c r="B204">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>2167</v>
+      </c>
+      <c r="B205">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>2168</v>
+      </c>
+      <c r="B206">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>2169</v>
+      </c>
+      <c r="B207">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>2170</v>
+      </c>
+      <c r="B208">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>2171</v>
+      </c>
+      <c r="B209">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>2172</v>
+      </c>
+      <c r="B210">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>2173</v>
+      </c>
+      <c r="B211">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>2174</v>
+      </c>
+      <c r="B212">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>2175</v>
+      </c>
+      <c r="B213">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>2176</v>
+      </c>
+      <c r="B214">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>2177</v>
+      </c>
+      <c r="B215">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>2178</v>
+      </c>
+      <c r="B216">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>2179</v>
+      </c>
+      <c r="B217">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>2180</v>
+      </c>
+      <c r="B218">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>2181</v>
+      </c>
+      <c r="B219">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>2182</v>
+      </c>
+      <c r="B220">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>2183</v>
+      </c>
+      <c r="B221">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>2184</v>
+      </c>
+      <c r="B222">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>2185</v>
+      </c>
+      <c r="B223">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>2186</v>
+      </c>
+      <c r="B224">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>2187</v>
+      </c>
+      <c r="B225">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>2188</v>
+      </c>
+      <c r="B226">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>2189</v>
+      </c>
+      <c r="B227">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>2190</v>
+      </c>
+      <c r="B228">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>2191</v>
+      </c>
+      <c r="B229">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>2192</v>
+      </c>
+      <c r="B230">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>2193</v>
+      </c>
+      <c r="B231">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>2194</v>
+      </c>
+      <c r="B232">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>2195</v>
+      </c>
+      <c r="B233">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>2196</v>
+      </c>
+      <c r="B234">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>2197</v>
+      </c>
+      <c r="B235">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>2198</v>
+      </c>
+      <c r="B236">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>2199</v>
+      </c>
+      <c r="B237">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>2200</v>
+      </c>
+      <c r="B238">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B239">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B240">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>2203</v>
+      </c>
+      <c r="B241">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>2204</v>
+      </c>
+      <c r="B242">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B243">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B244">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B245">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B246">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B247">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>2210</v>
+      </c>
+      <c r="B248">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>2211</v>
+      </c>
+      <c r="B249">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B250">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>2213</v>
+      </c>
+      <c r="B251">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B252">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>2215</v>
+      </c>
+      <c r="B253">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>2216</v>
+      </c>
+      <c r="B254">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>2217</v>
+      </c>
+      <c r="B255">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>2218</v>
+      </c>
+      <c r="B256">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>2219</v>
+      </c>
+      <c r="B257">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>2220</v>
+      </c>
+      <c r="B258">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>2221</v>
+      </c>
+      <c r="B259">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>2222</v>
+      </c>
+      <c r="B260">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>2223</v>
+      </c>
+      <c r="B261">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>2224</v>
+      </c>
+      <c r="B262">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>2225</v>
+      </c>
+      <c r="B263">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>2226</v>
+      </c>
+      <c r="B264">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>2227</v>
+      </c>
+      <c r="B265">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>2228</v>
+      </c>
+      <c r="B266">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>2229</v>
+      </c>
+      <c r="B267">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>2230</v>
+      </c>
+      <c r="B268">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>2231</v>
+      </c>
+      <c r="B269">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>2232</v>
+      </c>
+      <c r="B270">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>2233</v>
+      </c>
+      <c r="B271">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>2234</v>
+      </c>
+      <c r="B272">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>2235</v>
+      </c>
+      <c r="B273">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>2236</v>
+      </c>
+      <c r="B274">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>2237</v>
+      </c>
+      <c r="B275">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>2238</v>
+      </c>
+      <c r="B276">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>2239</v>
+      </c>
+      <c r="B277">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>2240</v>
+      </c>
+      <c r="B278">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>2241</v>
+      </c>
+      <c r="B279">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>2242</v>
+      </c>
+      <c r="B280">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>2243</v>
+      </c>
+      <c r="B281">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>2244</v>
+      </c>
+      <c r="B282">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>2245</v>
+      </c>
+      <c r="B283">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>2246</v>
+      </c>
+      <c r="B284">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>2247</v>
+      </c>
+      <c r="B285">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>2248</v>
+      </c>
+      <c r="B286">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>2249</v>
+      </c>
+      <c r="B287">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B288">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>2251</v>
+      </c>
+      <c r="B289">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>2252</v>
+      </c>
+      <c r="B290">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>2253</v>
+      </c>
+      <c r="B291">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>2254</v>
+      </c>
+      <c r="B292">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>2255</v>
+      </c>
+      <c r="B293">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>2256</v>
+      </c>
+      <c r="B294">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>2257</v>
+      </c>
+      <c r="B295">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>2258</v>
+      </c>
+      <c r="B296">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>2259</v>
+      </c>
+      <c r="B297">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>2260</v>
+      </c>
+      <c r="B298">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>2261</v>
+      </c>
+      <c r="B299">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>2262</v>
+      </c>
+      <c r="B300">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>2263</v>
+      </c>
+      <c r="B301">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>2264</v>
+      </c>
+      <c r="B302">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>2265</v>
+      </c>
+      <c r="B303">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>2266</v>
+      </c>
+      <c r="B304">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>2267</v>
+      </c>
+      <c r="B305">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>2268</v>
+      </c>
+      <c r="B306">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>2269</v>
+      </c>
+      <c r="B307">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>2270</v>
+      </c>
+      <c r="B308">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>2271</v>
+      </c>
+      <c r="B309">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>2272</v>
+      </c>
+      <c r="B310">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>2273</v>
+      </c>
+      <c r="B311">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>2274</v>
+      </c>
+      <c r="B312">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>2275</v>
+      </c>
+      <c r="B313">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>2276</v>
+      </c>
+      <c r="B314">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>2277</v>
+      </c>
+      <c r="B315">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>2278</v>
+      </c>
+      <c r="B316">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>2279</v>
+      </c>
+      <c r="B317">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>2280</v>
+      </c>
+      <c r="B318">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>2281</v>
+      </c>
+      <c r="B319">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>2282</v>
+      </c>
+      <c r="B320">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>2283</v>
+      </c>
+      <c r="B321">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>2284</v>
+      </c>
+      <c r="B322">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>2285</v>
+      </c>
+      <c r="B323">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>2286</v>
+      </c>
+      <c r="B324">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>2287</v>
+      </c>
+      <c r="B325">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>2288</v>
+      </c>
+      <c r="B326">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>2289</v>
+      </c>
+      <c r="B327">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>2290</v>
+      </c>
+      <c r="B328">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>2291</v>
+      </c>
+      <c r="B329">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>2292</v>
+      </c>
+      <c r="B330">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>2293</v>
+      </c>
+      <c r="B331">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>2294</v>
+      </c>
+      <c r="B332">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>2295</v>
+      </c>
+      <c r="B333">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>2296</v>
+      </c>
+      <c r="B334">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>2297</v>
+      </c>
+      <c r="B335">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>2298</v>
+      </c>
+      <c r="B336">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>2299</v>
+      </c>
+      <c r="B337">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>2300</v>
+      </c>
+      <c r="B338">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>2301</v>
+      </c>
+      <c r="B339">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>2302</v>
+      </c>
+      <c r="B340">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>2303</v>
+      </c>
+      <c r="B341">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>2304</v>
+      </c>
+      <c r="B342">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>2305</v>
+      </c>
+      <c r="B343">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>2306</v>
+      </c>
+      <c r="B344">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>2307</v>
+      </c>
+      <c r="B345">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>2308</v>
+      </c>
+      <c r="B346">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>2309</v>
+      </c>
+      <c r="B347">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>2310</v>
+      </c>
+      <c r="B348">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>2311</v>
+      </c>
+      <c r="B349">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>2312</v>
+      </c>
+      <c r="B350">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>2313</v>
+      </c>
+      <c r="B351">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>2314</v>
+      </c>
+      <c r="B352">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>2315</v>
+      </c>
+      <c r="B353">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B354">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B355">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>2318</v>
+      </c>
+      <c r="B356">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>2319</v>
+      </c>
+      <c r="B357">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>2320</v>
+      </c>
+      <c r="B358">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>2321</v>
+      </c>
+      <c r="B359">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>2322</v>
+      </c>
+      <c r="B360">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>2323</v>
+      </c>
+      <c r="B361">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>2324</v>
+      </c>
+      <c r="B362">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>2325</v>
+      </c>
+      <c r="B363">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>2326</v>
+      </c>
+      <c r="B364">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>2327</v>
+      </c>
+      <c r="B365">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>2328</v>
+      </c>
+      <c r="B366">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>2329</v>
+      </c>
+      <c r="B367">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>2330</v>
+      </c>
+      <c r="B368">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>2331</v>
+      </c>
+      <c r="B369">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>2332</v>
+      </c>
+      <c r="B370">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>2333</v>
+      </c>
+      <c r="B371">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>2334</v>
+      </c>
+      <c r="B372">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>2335</v>
+      </c>
+      <c r="B373">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>2336</v>
+      </c>
+      <c r="B374">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>2337</v>
+      </c>
+      <c r="B375">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>2338</v>
+      </c>
+      <c r="B376">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>2339</v>
+      </c>
+      <c r="B377">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B378">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>2341</v>
+      </c>
+      <c r="B379">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>2342</v>
+      </c>
+      <c r="B380">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>2343</v>
+      </c>
+      <c r="B381">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>2344</v>
+      </c>
+      <c r="B382">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>2345</v>
+      </c>
+      <c r="B383">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>2346</v>
+      </c>
+      <c r="B384">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>2347</v>
+      </c>
+      <c r="B385">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>2348</v>
+      </c>
+      <c r="B386">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>2349</v>
+      </c>
+      <c r="B387">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>2350</v>
+      </c>
+      <c r="B388">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>2351</v>
+      </c>
+      <c r="B389">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>2352</v>
+      </c>
+      <c r="B390">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>2353</v>
+      </c>
+      <c r="B391">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>2354</v>
+      </c>
+      <c r="B392">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>2355</v>
+      </c>
+      <c r="B393">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>2356</v>
+      </c>
+      <c r="B394">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>2357</v>
+      </c>
+      <c r="B395">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>2358</v>
+      </c>
+      <c r="B396">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>2359</v>
+      </c>
+      <c r="B397">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>2360</v>
+      </c>
+      <c r="B398">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>2361</v>
+      </c>
+      <c r="B399">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>2362</v>
+      </c>
+      <c r="B400">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>2363</v>
+      </c>
+      <c r="B401">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>2364</v>
+      </c>
+      <c r="B402">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>2365</v>
+      </c>
+      <c r="B403">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>2366</v>
+      </c>
+      <c r="B404">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>2367</v>
+      </c>
+      <c r="B405">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>2368</v>
+      </c>
+      <c r="B406">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>2369</v>
+      </c>
+      <c r="B407">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>2370</v>
+      </c>
+      <c r="B408">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>2371</v>
+      </c>
+      <c r="B409">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>2372</v>
+      </c>
+      <c r="B410">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>2373</v>
+      </c>
+      <c r="B411">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>2374</v>
+      </c>
+      <c r="B412">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>2375</v>
+      </c>
+      <c r="B413">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>2376</v>
+      </c>
+      <c r="B414">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>2377</v>
+      </c>
+      <c r="B415">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>2378</v>
+      </c>
+      <c r="B416">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>2379</v>
+      </c>
+      <c r="B417">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>2380</v>
+      </c>
+      <c r="B418">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>2381</v>
+      </c>
+      <c r="B419">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>2382</v>
+      </c>
+      <c r="B420">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>2383</v>
+      </c>
+      <c r="B421">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>2384</v>
+      </c>
+      <c r="B422">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>2385</v>
+      </c>
+      <c r="B423">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>2386</v>
+      </c>
+      <c r="B424">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>2387</v>
+      </c>
+      <c r="B425">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>2388</v>
+      </c>
+      <c r="B426">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>2389</v>
+      </c>
+      <c r="B427">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>2390</v>
+      </c>
+      <c r="B428">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>2391</v>
+      </c>
+      <c r="B429">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>2392</v>
+      </c>
+      <c r="B430">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>2393</v>
+      </c>
+      <c r="B431">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>2394</v>
+      </c>
+      <c r="B432">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>2395</v>
+      </c>
+      <c r="B433">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>2396</v>
+      </c>
+      <c r="B434">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>2397</v>
+      </c>
+      <c r="B435">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>2398</v>
+      </c>
+      <c r="B436">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>2399</v>
+      </c>
+      <c r="B437">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>2400</v>
+      </c>
+      <c r="B438">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>2401</v>
+      </c>
+      <c r="B439">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>2402</v>
+      </c>
+      <c r="B440">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>2403</v>
+      </c>
+      <c r="B441">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>2404</v>
+      </c>
+      <c r="B442">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>2405</v>
+      </c>
+      <c r="B443">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>2406</v>
+      </c>
+      <c r="B444">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B445">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>2408</v>
+      </c>
+      <c r="B446">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B447">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>2410</v>
+      </c>
+      <c r="B448">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B449">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>2412</v>
+      </c>
+      <c r="B450">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B451">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>2414</v>
+      </c>
+      <c r="B452">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>2415</v>
+      </c>
+      <c r="B453">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>2416</v>
+      </c>
+      <c r="B454">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>2417</v>
+      </c>
+      <c r="B455">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>2418</v>
+      </c>
+      <c r="B456">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>2419</v>
+      </c>
+      <c r="B457">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>2420</v>
+      </c>
+      <c r="B458">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>2421</v>
+      </c>
+      <c r="B459">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>2422</v>
+      </c>
+      <c r="B460">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>2423</v>
+      </c>
+      <c r="B461">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>2424</v>
+      </c>
+      <c r="B462">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>2425</v>
+      </c>
+      <c r="B463">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>2426</v>
+      </c>
+      <c r="B464">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>2427</v>
+      </c>
+      <c r="B465">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>2428</v>
+      </c>
+      <c r="B466">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>2429</v>
+      </c>
+      <c r="B467">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>2430</v>
+      </c>
+      <c r="B468">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>2431</v>
+      </c>
+      <c r="B469">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>2432</v>
+      </c>
+      <c r="B470">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>2433</v>
+      </c>
+      <c r="B471">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>2434</v>
+      </c>
+      <c r="B472">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>2435</v>
+      </c>
+      <c r="B473">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>2436</v>
+      </c>
+      <c r="B474">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>2437</v>
+      </c>
+      <c r="B475">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>2438</v>
+      </c>
+      <c r="B476">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>2439</v>
+      </c>
+      <c r="B477">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>2440</v>
+      </c>
+      <c r="B478">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>2441</v>
+      </c>
+      <c r="B479">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>2442</v>
+      </c>
+      <c r="B480">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>2443</v>
+      </c>
+      <c r="B481">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>2444</v>
+      </c>
+      <c r="B482">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>2445</v>
+      </c>
+      <c r="B483">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>2446</v>
+      </c>
+      <c r="B484">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>2447</v>
+      </c>
+      <c r="B485">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>2448</v>
+      </c>
+      <c r="B486">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>2449</v>
+      </c>
+      <c r="B487">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>2450</v>
+      </c>
+      <c r="B488">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>2451</v>
+      </c>
+      <c r="B489">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>2452</v>
+      </c>
+      <c r="B490">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>2453</v>
+      </c>
+      <c r="B491">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="2">
+        <v>2454</v>
+      </c>
+      <c r="B492">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="2">
+        <v>2455</v>
+      </c>
+      <c r="B493">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="2">
+        <v>2456</v>
+      </c>
+      <c r="B494">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="2">
+        <v>2457</v>
+      </c>
+      <c r="B495">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="2">
+        <v>2458</v>
+      </c>
+      <c r="B496">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="2">
+        <v>2459</v>
+      </c>
+      <c r="B497">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="2">
+        <v>2460</v>
+      </c>
+      <c r="B498">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="2">
+        <v>2461</v>
+      </c>
+      <c r="B499">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="2">
+        <v>2462</v>
+      </c>
+      <c r="B500">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="2">
+        <v>2463</v>
+      </c>
+      <c r="B501">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="2">
+        <v>2464</v>
+      </c>
+      <c r="B502">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="2">
+        <v>2465</v>
+      </c>
+      <c r="B503">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="2">
+        <v>2466</v>
+      </c>
+      <c r="B504">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="2">
+        <v>2467</v>
+      </c>
+      <c r="B505">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="2">
+        <v>2468</v>
+      </c>
+      <c r="B506">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="2">
+        <v>2469</v>
+      </c>
+      <c r="B507">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="2">
+        <v>2470</v>
+      </c>
+      <c r="B508">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="2">
+        <v>2471</v>
+      </c>
+      <c r="B509">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="2">
+        <v>2472</v>
+      </c>
+      <c r="B510">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="2">
+        <v>2473</v>
+      </c>
+      <c r="B511">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="2">
+        <v>2474</v>
+      </c>
+      <c r="B512">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="2">
+        <v>2475</v>
+      </c>
+      <c r="B513">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="2">
+        <v>2476</v>
+      </c>
+      <c r="B514">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="2">
+        <v>2477</v>
+      </c>
+      <c r="B515">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="2">
+        <v>2478</v>
+      </c>
+      <c r="B516">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="2">
+        <v>2479</v>
+      </c>
+      <c r="B517">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="2">
+        <v>2480</v>
+      </c>
+      <c r="B518">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="2">
+        <v>2481</v>
+      </c>
+      <c r="B519">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="2">
+        <v>2482</v>
+      </c>
+      <c r="B520">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="2">
+        <v>2483</v>
+      </c>
+      <c r="B521">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="2">
+        <v>2484</v>
+      </c>
+      <c r="B522">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="2">
+        <v>2485</v>
+      </c>
+      <c r="B523">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
+        <v>2486</v>
+      </c>
+      <c r="B524">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="2">
+        <v>2487</v>
+      </c>
+      <c r="B525">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="2">
+        <v>2488</v>
+      </c>
+      <c r="B526">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="2">
+        <v>2489</v>
+      </c>
+      <c r="B527">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="2">
+        <v>2490</v>
+      </c>
+      <c r="B528">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
+        <v>2491</v>
+      </c>
+      <c r="B529">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
+        <v>2492</v>
+      </c>
+      <c r="B530">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
+        <v>2493</v>
+      </c>
+      <c r="B531">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
+        <v>2494</v>
+      </c>
+      <c r="B532">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
+        <v>2495</v>
+      </c>
+      <c r="B533">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="2">
+        <v>2496</v>
+      </c>
+      <c r="B534">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="2">
+        <v>2497</v>
+      </c>
+      <c r="B535">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="2">
+        <v>2498</v>
+      </c>
+      <c r="B536">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
+        <v>2499</v>
+      </c>
+      <c r="B537">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B538">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="2">
+        <v>2501</v>
+      </c>
+      <c r="B539">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="2">
+        <v>2502</v>
+      </c>
+      <c r="B540">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B541">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B542">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B543">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B544">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B545">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="2">
+        <v>2508</v>
+      </c>
+      <c r="B546">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B547">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B548">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B549">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B550">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B551">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B552">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B553">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="2">
+        <v>2516</v>
+      </c>
+      <c r="B554">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="2">
+        <v>2517</v>
+      </c>
+      <c r="B555">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="2">
+        <v>2518</v>
+      </c>
+      <c r="B556">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="2">
+        <v>2519</v>
+      </c>
+      <c r="B557">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="2">
+        <v>2520</v>
+      </c>
+      <c r="B558">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="2">
+        <v>2521</v>
+      </c>
+      <c r="B559">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="2">
+        <v>2522</v>
+      </c>
+      <c r="B560">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="2">
+        <v>2523</v>
+      </c>
+      <c r="B561">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="2">
+        <v>2524</v>
+      </c>
+      <c r="B562">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="2">
+        <v>2525</v>
+      </c>
+      <c r="B563">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="2">
+        <v>2526</v>
+      </c>
+      <c r="B564">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="2">
+        <v>2527</v>
+      </c>
+      <c r="B565">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="2">
+        <v>2528</v>
+      </c>
+      <c r="B566">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="2">
+        <v>2529</v>
+      </c>
+      <c r="B567">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="2">
+        <v>2530</v>
+      </c>
+      <c r="B568">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="2">
+        <v>2531</v>
+      </c>
+      <c r="B569">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="2">
+        <v>2532</v>
+      </c>
+      <c r="B570">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="2">
+        <v>2533</v>
+      </c>
+      <c r="B571">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="2">
+        <v>2534</v>
+      </c>
+      <c r="B572">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="2">
+        <v>2535</v>
+      </c>
+      <c r="B573">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="2">
+        <v>2536</v>
+      </c>
+      <c r="B574">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="2">
+        <v>2537</v>
+      </c>
+      <c r="B575">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="2">
+        <v>2538</v>
+      </c>
+      <c r="B576">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="2">
+        <v>2539</v>
+      </c>
+      <c r="B577">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="2">
+        <v>2540</v>
+      </c>
+      <c r="B578">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="2">
+        <v>2541</v>
+      </c>
+      <c r="B579">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="2">
+        <v>2542</v>
+      </c>
+      <c r="B580">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="2">
+        <v>2543</v>
+      </c>
+      <c r="B581">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="2">
+        <v>2544</v>
+      </c>
+      <c r="B582">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="2">
+        <v>2545</v>
+      </c>
+      <c r="B583">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="2">
+        <v>2546</v>
+      </c>
+      <c r="B584">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="2">
+        <v>2547</v>
+      </c>
+      <c r="B585">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="2">
+        <v>2548</v>
+      </c>
+      <c r="B586">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="2">
+        <v>2549</v>
+      </c>
+      <c r="B587">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="2">
+        <v>2550</v>
+      </c>
+      <c r="B588">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="2">
+        <v>2551</v>
+      </c>
+      <c r="B589">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="2">
+        <v>2552</v>
+      </c>
+      <c r="B590">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="2">
+        <v>2553</v>
+      </c>
+      <c r="B591">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="2">
+        <v>2554</v>
+      </c>
+      <c r="B592">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="2">
+        <v>2555</v>
+      </c>
+      <c r="B593">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="2">
+        <v>2556</v>
+      </c>
+      <c r="B594">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="2">
+        <v>2557</v>
+      </c>
+      <c r="B595">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="2">
+        <v>2558</v>
+      </c>
+      <c r="B596">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="2">
+        <v>2559</v>
+      </c>
+      <c r="B597">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="2">
+        <v>2560</v>
+      </c>
+      <c r="B598">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="2">
+        <v>2561</v>
+      </c>
+      <c r="B599">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="2">
+        <v>2562</v>
+      </c>
+      <c r="B600">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="2">
+        <v>2563</v>
+      </c>
+      <c r="B601">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="2">
+        <v>2564</v>
+      </c>
+      <c r="B602">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="2">
+        <v>2565</v>
+      </c>
+      <c r="B603">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="2">
+        <v>2566</v>
+      </c>
+      <c r="B604">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="2">
+        <v>2567</v>
+      </c>
+      <c r="B605">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="2">
+        <v>2568</v>
+      </c>
+      <c r="B606">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="2">
+        <v>2569</v>
+      </c>
+      <c r="B607">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="2">
+        <v>2570</v>
+      </c>
+      <c r="B608">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="2">
+        <v>2571</v>
+      </c>
+      <c r="B609">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="2">
+        <v>2572</v>
+      </c>
+      <c r="B610">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="2">
+        <v>2573</v>
+      </c>
+      <c r="B611">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="2">
+        <v>2574</v>
+      </c>
+      <c r="B612">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="2">
+        <v>2575</v>
+      </c>
+      <c r="B613">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="2">
+        <v>2576</v>
+      </c>
+      <c r="B614">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="2">
+        <v>2577</v>
+      </c>
+      <c r="B615">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="2">
+        <v>2578</v>
+      </c>
+      <c r="B616">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="2">
+        <v>2579</v>
+      </c>
+      <c r="B617">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="2">
+        <v>2580</v>
+      </c>
+      <c r="B618">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="2">
+        <v>2581</v>
+      </c>
+      <c r="B619">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="2">
+        <v>2582</v>
+      </c>
+      <c r="B620">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="2">
+        <v>2583</v>
+      </c>
+      <c r="B621">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="2">
+        <v>2584</v>
+      </c>
+      <c r="B622">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="2">
+        <v>2585</v>
+      </c>
+      <c r="B623">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="2">
+        <v>2586</v>
+      </c>
+      <c r="B624">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="2">
+        <v>2587</v>
+      </c>
+      <c r="B625">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="2">
+        <v>2588</v>
+      </c>
+      <c r="B626">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="2">
+        <v>2589</v>
+      </c>
+      <c r="B627">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="2">
+        <v>2590</v>
+      </c>
+      <c r="B628">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="2">
+        <v>2591</v>
+      </c>
+      <c r="B629">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>2592</v>
+      </c>
+      <c r="B630">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>2593</v>
+      </c>
+      <c r="B631">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>2594</v>
+      </c>
+      <c r="B632">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>2595</v>
+      </c>
+      <c r="B633">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <v>2596</v>
+      </c>
+      <c r="B634">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <v>2597</v>
+      </c>
+      <c r="B635">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>2598</v>
+      </c>
+      <c r="B636">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>2599</v>
+      </c>
+      <c r="B637">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>2600</v>
+      </c>
+      <c r="B638">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <v>2601</v>
+      </c>
+      <c r="B639">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <v>2602</v>
+      </c>
+      <c r="B640">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>2603</v>
+      </c>
+      <c r="B641">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>2604</v>
+      </c>
+      <c r="B642">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>2605</v>
+      </c>
+      <c r="B643">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <v>2606</v>
+      </c>
+      <c r="B644">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <v>2607</v>
+      </c>
+      <c r="B645">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <v>2608</v>
+      </c>
+      <c r="B646">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <v>2609</v>
+      </c>
+      <c r="B647">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="2">
+        <v>2610</v>
+      </c>
+      <c r="B648">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="2">
+        <v>2611</v>
+      </c>
+      <c r="B649">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="2">
+        <v>2612</v>
+      </c>
+      <c r="B650">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="2">
+        <v>2613</v>
+      </c>
+      <c r="B651">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="2">
+        <v>2614</v>
+      </c>
+      <c r="B652">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="2">
+        <v>2615</v>
+      </c>
+      <c r="B653">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="2">
+        <v>2616</v>
+      </c>
+      <c r="B654">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="2">
+        <v>2617</v>
+      </c>
+      <c r="B655">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="2">
+        <v>2618</v>
+      </c>
+      <c r="B656">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="2">
+        <v>2619</v>
+      </c>
+      <c r="B657">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="2">
+        <v>2620</v>
+      </c>
+      <c r="B658">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="2">
+        <v>2621</v>
+      </c>
+      <c r="B659">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="2">
+        <v>2622</v>
+      </c>
+      <c r="B660">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="2">
+        <v>2623</v>
+      </c>
+      <c r="B661">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="2">
+        <v>2624</v>
+      </c>
+      <c r="B662">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="2">
+        <v>2625</v>
+      </c>
+      <c r="B663">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="2">
+        <v>2626</v>
+      </c>
+      <c r="B664">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="2">
+        <v>2627</v>
+      </c>
+      <c r="B665">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="2">
+        <v>2628</v>
+      </c>
+      <c r="B666">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="2">
+        <v>2629</v>
+      </c>
+      <c r="B667">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="2">
+        <v>2630</v>
+      </c>
+      <c r="B668">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="2">
+        <v>2631</v>
+      </c>
+      <c r="B669">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="2">
+        <v>2632</v>
+      </c>
+      <c r="B670">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="2">
+        <v>2633</v>
+      </c>
+      <c r="B671">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="2">
+        <v>2634</v>
+      </c>
+      <c r="B672">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="2">
+        <v>2635</v>
+      </c>
+      <c r="B673">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="2">
+        <v>2636</v>
+      </c>
+      <c r="B674">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="2">
+        <v>2637</v>
+      </c>
+      <c r="B675">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="2">
+        <v>2638</v>
+      </c>
+      <c r="B676">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="2">
+        <v>2639</v>
+      </c>
+      <c r="B677">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="2">
+        <v>2640</v>
+      </c>
+      <c r="B678">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="2">
+        <v>2641</v>
+      </c>
+      <c r="B679">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="2">
+        <v>2642</v>
+      </c>
+      <c r="B680">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="2">
+        <v>2643</v>
+      </c>
+      <c r="B681">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="2">
+        <v>2644</v>
+      </c>
+      <c r="B682">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="2">
+        <v>2645</v>
+      </c>
+      <c r="B683">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="2">
+        <v>2646</v>
+      </c>
+      <c r="B684">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="2">
+        <v>2647</v>
+      </c>
+      <c r="B685">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="2">
+        <v>2648</v>
+      </c>
+      <c r="B686">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="2">
+        <v>2649</v>
+      </c>
+      <c r="B687">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="2">
+        <v>2650</v>
+      </c>
+      <c r="B688">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="2">
+        <v>2651</v>
+      </c>
+      <c r="B689">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="2">
+        <v>2652</v>
+      </c>
+      <c r="B690">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="2">
+        <v>2653</v>
+      </c>
+      <c r="B691">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="2">
+        <v>2654</v>
+      </c>
+      <c r="B692">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="2">
+        <v>2655</v>
+      </c>
+      <c r="B693">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="2">
+        <v>2656</v>
+      </c>
+      <c r="B694">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="2">
+        <v>2657</v>
+      </c>
+      <c r="B695">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="2">
+        <v>2658</v>
+      </c>
+      <c r="B696">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="2">
+        <v>2659</v>
+      </c>
+      <c r="B697">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="2">
+        <v>2660</v>
+      </c>
+      <c r="B698">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="2">
+        <v>2661</v>
+      </c>
+      <c r="B699">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="2">
+        <v>2662</v>
+      </c>
+      <c r="B700">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="2">
+        <v>2663</v>
+      </c>
+      <c r="B701">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="2">
+        <v>2664</v>
+      </c>
+      <c r="B702">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="2">
+        <v>2665</v>
+      </c>
+      <c r="B703">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="2">
+        <v>2666</v>
+      </c>
+      <c r="B704">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="2">
+        <v>2667</v>
+      </c>
+      <c r="B705">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="2">
+        <v>2668</v>
+      </c>
+      <c r="B706">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="2">
+        <v>2669</v>
+      </c>
+      <c r="B707">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="2">
+        <v>2670</v>
+      </c>
+      <c r="B708">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="2">
+        <v>2671</v>
+      </c>
+      <c r="B709">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="2">
+        <v>2672</v>
+      </c>
+      <c r="B710">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="2">
+        <v>2673</v>
+      </c>
+      <c r="B711">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="2">
+        <v>2674</v>
+      </c>
+      <c r="B712">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="2">
+        <v>2675</v>
+      </c>
+      <c r="B713">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="2">
+        <v>2676</v>
+      </c>
+      <c r="B714">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="2">
+        <v>2677</v>
+      </c>
+      <c r="B715">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="2">
+        <v>2678</v>
+      </c>
+      <c r="B716">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="2">
+        <v>2679</v>
+      </c>
+      <c r="B717">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="2">
+        <v>2680</v>
+      </c>
+      <c r="B718">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="2">
+        <v>2681</v>
+      </c>
+      <c r="B719">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" s="2">
+        <v>2682</v>
+      </c>
+      <c r="B720">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="2">
+        <v>2683</v>
+      </c>
+      <c r="B721">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="2">
+        <v>2684</v>
+      </c>
+      <c r="B722">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="2">
+        <v>2685</v>
+      </c>
+      <c r="B723">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="2">
+        <v>2686</v>
+      </c>
+      <c r="B724">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="2">
+        <v>2687</v>
+      </c>
+      <c r="B725">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="2">
+        <v>2688</v>
+      </c>
+      <c r="B726">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="2">
+        <v>2689</v>
+      </c>
+      <c r="B727">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="2">
+        <v>2690</v>
+      </c>
+      <c r="B728">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="2">
+        <v>2691</v>
+      </c>
+      <c r="B729">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="2">
+        <v>2692</v>
+      </c>
+      <c r="B730">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="2">
+        <v>2693</v>
+      </c>
+      <c r="B731">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="2">
+        <v>2694</v>
+      </c>
+      <c r="B732">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="2">
+        <v>2695</v>
+      </c>
+      <c r="B733">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="2">
+        <v>2696</v>
+      </c>
+      <c r="B734">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="2">
+        <v>2697</v>
+      </c>
+      <c r="B735">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="2">
+        <v>2698</v>
+      </c>
+      <c r="B736">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="2">
+        <v>2699</v>
+      </c>
+      <c r="B737">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="2">
+        <v>2700</v>
+      </c>
+      <c r="B738">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="2">
+        <v>2701</v>
+      </c>
+      <c r="B739">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="2">
+        <v>2702</v>
+      </c>
+      <c r="B740">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="2">
+        <v>2703</v>
+      </c>
+      <c r="B741">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="2">
+        <v>2704</v>
+      </c>
+      <c r="B742">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="2">
+        <v>2705</v>
+      </c>
+      <c r="B743">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="2">
+        <v>2706</v>
+      </c>
+      <c r="B744">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="2">
+        <v>2707</v>
+      </c>
+      <c r="B745">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="2">
+        <v>2708</v>
+      </c>
+      <c r="B746">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="2">
+        <v>2709</v>
+      </c>
+      <c r="B747">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="2">
+        <v>2710</v>
+      </c>
+      <c r="B748">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="2">
+        <v>2711</v>
+      </c>
+      <c r="B749">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="2">
+        <v>2712</v>
+      </c>
+      <c r="B750">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="2">
+        <v>2713</v>
+      </c>
+      <c r="B751">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" s="2">
+        <v>2714</v>
+      </c>
+      <c r="B752">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" s="2">
+        <v>2715</v>
+      </c>
+      <c r="B753">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="2">
+        <v>2716</v>
+      </c>
+      <c r="B754">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" s="2">
+        <v>2717</v>
+      </c>
+      <c r="B755">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" s="2">
+        <v>2718</v>
+      </c>
+      <c r="B756">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="2">
+        <v>2719</v>
+      </c>
+      <c r="B757">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="2">
+        <v>2720</v>
+      </c>
+      <c r="B758">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="2">
+        <v>2721</v>
+      </c>
+      <c r="B759">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="2">
+        <v>2722</v>
+      </c>
+      <c r="B760">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="2">
+        <v>2723</v>
+      </c>
+      <c r="B761">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="2">
+        <v>2724</v>
+      </c>
+      <c r="B762">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="2">
+        <v>2725</v>
+      </c>
+      <c r="B763">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="2">
+        <v>2726</v>
+      </c>
+      <c r="B764">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="2">
+        <v>2727</v>
+      </c>
+      <c r="B765">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="2">
+        <v>2728</v>
+      </c>
+      <c r="B766">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="2">
+        <v>2729</v>
+      </c>
+      <c r="B767">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" s="2">
+        <v>2730</v>
+      </c>
+      <c r="B768">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" s="2">
+        <v>2731</v>
+      </c>
+      <c r="B769">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="2">
+        <v>2732</v>
+      </c>
+      <c r="B770">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" s="2">
+        <v>2733</v>
+      </c>
+      <c r="B771">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" s="2">
+        <v>2734</v>
+      </c>
+      <c r="B772">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" s="2">
+        <v>2735</v>
+      </c>
+      <c r="B773">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" s="2">
+        <v>2736</v>
+      </c>
+      <c r="B774">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" s="2">
+        <v>2737</v>
+      </c>
+      <c r="B775">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" s="2">
+        <v>2738</v>
+      </c>
+      <c r="B776">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" s="2">
+        <v>2739</v>
+      </c>
+      <c r="B777">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" s="2">
+        <v>2740</v>
+      </c>
+      <c r="B778">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" s="2">
+        <v>2741</v>
+      </c>
+      <c r="B779">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" s="2">
+        <v>2742</v>
+      </c>
+      <c r="B780">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" s="2">
+        <v>2743</v>
+      </c>
+      <c r="B781">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" s="2">
+        <v>2744</v>
+      </c>
+      <c r="B782">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>2745</v>
+      </c>
+      <c r="B783">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>2746</v>
+      </c>
+      <c r="B784">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>2747</v>
+      </c>
+      <c r="B785">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>2748</v>
+      </c>
+      <c r="B786">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>2749</v>
+      </c>
+      <c r="B787">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>2750</v>
+      </c>
+      <c r="B788">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>2751</v>
+      </c>
+      <c r="B789">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>2752</v>
+      </c>
+      <c r="B790">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" s="2">
+        <v>2753</v>
+      </c>
+      <c r="B791">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="2">
+        <v>2754</v>
+      </c>
+      <c r="B792">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="2">
+        <v>2755</v>
+      </c>
+      <c r="B793">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" s="2">
+        <v>2756</v>
+      </c>
+      <c r="B794">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" s="2">
+        <v>2757</v>
+      </c>
+      <c r="B795">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" s="2">
+        <v>2758</v>
+      </c>
+      <c r="B796">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" s="2">
+        <v>2759</v>
+      </c>
+      <c r="B797">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" s="2">
+        <v>2760</v>
+      </c>
+      <c r="B798">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" s="2">
+        <v>2761</v>
+      </c>
+      <c r="B799">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="2">
+        <v>2762</v>
+      </c>
+      <c r="B800">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
+        <v>2763</v>
+      </c>
+      <c r="B801">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>2764</v>
+      </c>
+      <c r="B802">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>2765</v>
+      </c>
+      <c r="B803">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>2766</v>
+      </c>
+      <c r="B804">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>2767</v>
+      </c>
+      <c r="B805">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>2768</v>
+      </c>
+      <c r="B806">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>2769</v>
+      </c>
+      <c r="B807">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>2770</v>
+      </c>
+      <c r="B808">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" s="2">
+        <v>2771</v>
+      </c>
+      <c r="B809">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" s="2">
+        <v>2772</v>
+      </c>
+      <c r="B810">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" s="2">
+        <v>2773</v>
+      </c>
+      <c r="B811">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" s="2">
+        <v>2774</v>
+      </c>
+      <c r="B812">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" s="2">
+        <v>2775</v>
+      </c>
+      <c r="B813">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" s="2">
+        <v>2776</v>
+      </c>
+      <c r="B814">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" s="2">
+        <v>2777</v>
+      </c>
+      <c r="B815">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" s="2">
+        <v>2778</v>
+      </c>
+      <c r="B816">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" s="2">
+        <v>2779</v>
+      </c>
+      <c r="B817">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" s="2">
+        <v>2780</v>
+      </c>
+      <c r="B818">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" s="2">
+        <v>2781</v>
+      </c>
+      <c r="B819">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" s="2">
+        <v>2782</v>
+      </c>
+      <c r="B820">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" s="2">
+        <v>2783</v>
+      </c>
+      <c r="B821">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" s="2">
+        <v>2784</v>
+      </c>
+      <c r="B822">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" s="2">
+        <v>2785</v>
+      </c>
+      <c r="B823">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" s="2">
+        <v>2786</v>
+      </c>
+      <c r="B824">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" s="2">
+        <v>2787</v>
+      </c>
+      <c r="B825">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" s="2">
+        <v>2788</v>
+      </c>
+      <c r="B826">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" s="2">
+        <v>2789</v>
+      </c>
+      <c r="B827">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" s="2">
+        <v>2790</v>
+      </c>
+      <c r="B828">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" s="2">
+        <v>2791</v>
+      </c>
+      <c r="B829">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" s="2">
+        <v>2792</v>
+      </c>
+      <c r="B830">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" s="2">
+        <v>2793</v>
+      </c>
+      <c r="B831">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" s="2">
+        <v>2794</v>
+      </c>
+      <c r="B832">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" s="2">
+        <v>2795</v>
+      </c>
+      <c r="B833">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" s="2">
+        <v>2796</v>
+      </c>
+      <c r="B834">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" s="2">
+        <v>2797</v>
+      </c>
+      <c r="B835">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" s="2">
+        <v>2798</v>
+      </c>
+      <c r="B836">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" s="2">
+        <v>2799</v>
+      </c>
+      <c r="B837">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" s="2">
+        <v>2800</v>
+      </c>
+      <c r="B838">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" s="2">
+        <v>2801</v>
+      </c>
+      <c r="B839">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" s="2">
+        <v>2802</v>
+      </c>
+      <c r="B840">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" s="2">
+        <v>2803</v>
+      </c>
+      <c r="B841">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" s="2">
+        <v>2804</v>
+      </c>
+      <c r="B842">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>2805</v>
+      </c>
+      <c r="B843">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>2806</v>
+      </c>
+      <c r="B844">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>2807</v>
+      </c>
+      <c r="B845">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>2808</v>
+      </c>
+      <c r="B846">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>2809</v>
+      </c>
+      <c r="B847">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>2810</v>
+      </c>
+      <c r="B848">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>2811</v>
+      </c>
+      <c r="B849">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>2812</v>
+      </c>
+      <c r="B850">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>2813</v>
+      </c>
+      <c r="B851">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>2814</v>
+      </c>
+      <c r="B852">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>2815</v>
+      </c>
+      <c r="B853">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>2816</v>
+      </c>
+      <c r="B854">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>2817</v>
+      </c>
+      <c r="B855">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>2818</v>
+      </c>
+      <c r="B856">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>2819</v>
+      </c>
+      <c r="B857">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>2820</v>
+      </c>
+      <c r="B858">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>2821</v>
+      </c>
+      <c r="B859">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>2822</v>
+      </c>
+      <c r="B860">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>2823</v>
+      </c>
+      <c r="B861">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>2824</v>
+      </c>
+      <c r="B862">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>2825</v>
+      </c>
+      <c r="B863">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" s="2">
+        <v>2826</v>
+      </c>
+      <c r="B864">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" s="2">
+        <v>2827</v>
+      </c>
+      <c r="B865">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>2828</v>
+      </c>
+      <c r="B866">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" s="2">
+        <v>2829</v>
+      </c>
+      <c r="B867">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" s="2">
+        <v>2830</v>
+      </c>
+      <c r="B868">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" s="2">
+        <v>2831</v>
+      </c>
+      <c r="B869">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" s="2">
+        <v>2832</v>
+      </c>
+      <c r="B870">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="2">
+        <v>2833</v>
+      </c>
+      <c r="B871">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>2834</v>
+      </c>
+      <c r="B872">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>2835</v>
+      </c>
+      <c r="B873">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>2836</v>
+      </c>
+      <c r="B874">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>2837</v>
+      </c>
+      <c r="B875">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>2838</v>
+      </c>
+      <c r="B876">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>2839</v>
+      </c>
+      <c r="B877">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>2840</v>
+      </c>
+      <c r="B878">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>2841</v>
+      </c>
+      <c r="B879">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>2842</v>
+      </c>
+      <c r="B880">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>2843</v>
+      </c>
+      <c r="B881">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>2844</v>
+      </c>
+      <c r="B882">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>2845</v>
+      </c>
+      <c r="B883">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>2846</v>
+      </c>
+      <c r="B884">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" s="2">
+        <v>2847</v>
+      </c>
+      <c r="B885">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" s="2">
+        <v>2848</v>
+      </c>
+      <c r="B886">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" s="2">
+        <v>2849</v>
+      </c>
+      <c r="B887">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" s="2">
+        <v>2850</v>
+      </c>
+      <c r="B888">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" s="2">
+        <v>2851</v>
+      </c>
+      <c r="B889">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" s="2">
+        <v>2852</v>
+      </c>
+      <c r="B890">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" s="2">
+        <v>2853</v>
+      </c>
+      <c r="B891">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" s="2">
+        <v>2854</v>
+      </c>
+      <c r="B892">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" s="2">
+        <v>2855</v>
+      </c>
+      <c r="B893">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="2">
+        <v>2856</v>
+      </c>
+      <c r="B894">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="2">
+        <v>2857</v>
+      </c>
+      <c r="B895">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" s="2">
+        <v>2858</v>
+      </c>
+      <c r="B896">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" s="2">
+        <v>2859</v>
+      </c>
+      <c r="B897">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" s="2">
+        <v>2860</v>
+      </c>
+      <c r="B898">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" s="2">
+        <v>2861</v>
+      </c>
+      <c r="B899">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" s="2">
+        <v>2862</v>
+      </c>
+      <c r="B900">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" s="2">
+        <v>2863</v>
+      </c>
+      <c r="B901">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" s="2">
+        <v>2864</v>
+      </c>
+      <c r="B902">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" s="2">
+        <v>2865</v>
+      </c>
+      <c r="B903">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" s="2">
+        <v>2866</v>
+      </c>
+      <c r="B904">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" s="2">
+        <v>2867</v>
+      </c>
+      <c r="B905">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" s="2">
+        <v>2868</v>
+      </c>
+      <c r="B906">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" s="2">
+        <v>2869</v>
+      </c>
+      <c r="B907">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" s="2">
+        <v>2870</v>
+      </c>
+      <c r="B908">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" s="2">
+        <v>2871</v>
+      </c>
+      <c r="B909">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" s="2">
+        <v>2872</v>
+      </c>
+      <c r="B910">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" s="2">
+        <v>2873</v>
+      </c>
+      <c r="B911">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" s="2">
+        <v>2874</v>
+      </c>
+      <c r="B912">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" s="2">
+        <v>2875</v>
+      </c>
+      <c r="B913">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="2">
+        <v>2876</v>
+      </c>
+      <c r="B914">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="2">
+        <v>2877</v>
+      </c>
+      <c r="B915">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="2">
+        <v>2878</v>
+      </c>
+      <c r="B916">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="2">
+        <v>2879</v>
+      </c>
+      <c r="B917">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" s="2">
+        <v>2880</v>
+      </c>
+      <c r="B918">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" s="2">
+        <v>2881</v>
+      </c>
+      <c r="B919">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" s="2">
+        <v>2882</v>
+      </c>
+      <c r="B920">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" s="2">
+        <v>2883</v>
+      </c>
+      <c r="B921">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" s="2">
+        <v>2884</v>
+      </c>
+      <c r="B922">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" s="2">
+        <v>2885</v>
+      </c>
+      <c r="B923">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="2">
+        <v>2886</v>
+      </c>
+      <c r="B924">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="2">
+        <v>2887</v>
+      </c>
+      <c r="B925">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" s="2">
+        <v>2888</v>
+      </c>
+      <c r="B926">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" s="2">
+        <v>2889</v>
+      </c>
+      <c r="B927">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" s="2">
+        <v>2890</v>
+      </c>
+      <c r="B928">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" s="2">
+        <v>2891</v>
+      </c>
+      <c r="B929">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" s="2">
+        <v>2892</v>
+      </c>
+      <c r="B930">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" s="2">
+        <v>2893</v>
+      </c>
+      <c r="B931">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" s="2">
+        <v>2894</v>
+      </c>
+      <c r="B932">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" s="2">
+        <v>2895</v>
+      </c>
+      <c r="B933">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" s="2">
+        <v>2896</v>
+      </c>
+      <c r="B934">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" s="2">
+        <v>2897</v>
+      </c>
+      <c r="B935">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" s="2">
+        <v>2898</v>
+      </c>
+      <c r="B936">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" s="2">
+        <v>2899</v>
+      </c>
+      <c r="B937">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" s="2">
+        <v>2900</v>
+      </c>
+      <c r="B938">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" s="2">
+        <v>2901</v>
+      </c>
+      <c r="B939">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" s="2">
+        <v>2902</v>
+      </c>
+      <c r="B940">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" s="2">
+        <v>2903</v>
+      </c>
+      <c r="B941">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" s="2">
+        <v>2904</v>
+      </c>
+      <c r="B942">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" s="2">
+        <v>2905</v>
+      </c>
+      <c r="B943">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" s="2">
+        <v>2906</v>
+      </c>
+      <c r="B944">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" s="2">
+        <v>2907</v>
+      </c>
+      <c r="B945">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" s="2">
+        <v>2908</v>
+      </c>
+      <c r="B946">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" s="2">
+        <v>2909</v>
+      </c>
+      <c r="B947">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="2">
+        <v>2910</v>
+      </c>
+      <c r="B948">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="2">
+        <v>2911</v>
+      </c>
+      <c r="B949">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" s="2">
+        <v>2912</v>
+      </c>
+      <c r="B950">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" s="2">
+        <v>2913</v>
+      </c>
+      <c r="B951">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="2">
+        <v>2914</v>
+      </c>
+      <c r="B952">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" s="2">
+        <v>2915</v>
+      </c>
+      <c r="B953">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" s="2">
+        <v>2916</v>
+      </c>
+      <c r="B954">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" s="2">
+        <v>2917</v>
+      </c>
+      <c r="B955">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="2">
+        <v>2918</v>
+      </c>
+      <c r="B956">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" s="2">
+        <v>2919</v>
+      </c>
+      <c r="B957">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" s="2">
+        <v>2920</v>
+      </c>
+      <c r="B958">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" s="2">
+        <v>2921</v>
+      </c>
+      <c r="B959">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" s="2">
+        <v>2922</v>
+      </c>
+      <c r="B960">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" s="2">
+        <v>2923</v>
+      </c>
+      <c r="B961">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" s="2">
+        <v>2924</v>
+      </c>
+      <c r="B962">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" s="2">
+        <v>2925</v>
+      </c>
+      <c r="B963">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" s="2">
+        <v>2926</v>
+      </c>
+      <c r="B964">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" s="2">
+        <v>2927</v>
+      </c>
+      <c r="B965">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" s="2">
+        <v>2928</v>
+      </c>
+      <c r="B966">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" s="2">
+        <v>2929</v>
+      </c>
+      <c r="B967">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" s="2">
+        <v>2930</v>
+      </c>
+      <c r="B968">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" s="2">
+        <v>2931</v>
+      </c>
+      <c r="B969">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" s="2">
+        <v>2932</v>
+      </c>
+      <c r="B970">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" s="2">
+        <v>2933</v>
+      </c>
+      <c r="B971">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" s="2">
+        <v>2934</v>
+      </c>
+      <c r="B972">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" s="2">
+        <v>2935</v>
+      </c>
+      <c r="B973">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" s="2">
+        <v>2936</v>
+      </c>
+      <c r="B974">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" s="2">
+        <v>2937</v>
+      </c>
+      <c r="B975">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" s="2">
+        <v>2938</v>
+      </c>
+      <c r="B976">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" s="2">
+        <v>2939</v>
+      </c>
+      <c r="B977">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" s="2">
+        <v>2940</v>
+      </c>
+      <c r="B978">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" s="2">
+        <v>2941</v>
+      </c>
+      <c r="B979">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" s="2">
+        <v>2942</v>
+      </c>
+      <c r="B980">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" s="2">
+        <v>2943</v>
+      </c>
+      <c r="B981">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" s="2">
+        <v>2944</v>
+      </c>
+      <c r="B982">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" s="2">
+        <v>2945</v>
+      </c>
+      <c r="B983">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" s="2">
+        <v>2946</v>
+      </c>
+      <c r="B984">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" s="2">
+        <v>2947</v>
+      </c>
+      <c r="B985">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" s="2">
+        <v>2948</v>
+      </c>
+      <c r="B986">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" s="2">
+        <v>2949</v>
+      </c>
+      <c r="B987">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" s="2">
+        <v>2950</v>
+      </c>
+      <c r="B988">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" s="2">
+        <v>2951</v>
+      </c>
+      <c r="B989">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" s="2">
+        <v>2952</v>
+      </c>
+      <c r="B990">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" s="2">
+        <v>2953</v>
+      </c>
+      <c r="B991">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" s="2">
+        <v>2954</v>
+      </c>
+      <c r="B992">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" s="2">
+        <v>2955</v>
+      </c>
+      <c r="B993">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" s="2">
+        <v>2956</v>
+      </c>
+      <c r="B994">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" s="2">
+        <v>2957</v>
+      </c>
+      <c r="B995">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" s="2">
+        <v>2958</v>
+      </c>
+      <c r="B996">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" s="2">
+        <v>2959</v>
+      </c>
+      <c r="B997">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" s="2">
+        <v>2960</v>
+      </c>
+      <c r="B998">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" s="2">
+        <v>2961</v>
+      </c>
+      <c r="B999">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2">
+        <v>2962</v>
+      </c>
+      <c r="B1000">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2">
+        <v>2963</v>
+      </c>
+      <c r="B1001">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2">
+        <v>2964</v>
+      </c>
+      <c r="B1002">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2">
+        <v>2965</v>
+      </c>
+      <c r="B1003">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2">
+        <v>2966</v>
+      </c>
+      <c r="B1004">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2">
+        <v>2967</v>
+      </c>
+      <c r="B1005">
+        <v>4932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -1071,12 +9155,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C1:C1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +9482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -1957,7 +10041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
